--- a/build/jig/business-rule.xlsx
+++ b/build/jig/business-rule.xlsx
@@ -19,21 +19,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">PACKAGE!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">ALL!$A$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">IDENTIFIER!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">ENUM!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">NUMBER!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">COLLECTION!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">DATE!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">TERM!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">VALIDATION!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">注意メソッド!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">注意メソッド!$A$1:$K$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
   <si>
     <t/>
   </si>
@@ -47,76 +47,124 @@
     <t>クラス数</t>
   </si>
   <si>
-    <t>jig.tutorial.domain.model.order</t>
+    <t>jig.tutorial.domain.model.book</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>jig.tutorial.domain.model.days</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>jig.tutorial.domain.model.member</t>
+  </si>
+  <si>
+    <t>クラス名</t>
+  </si>
+  <si>
+    <t>クラス別名</t>
+  </si>
+  <si>
+    <t>member.Member</t>
+  </si>
+  <si>
+    <t>会員</t>
+  </si>
+  <si>
+    <t>member.MemberType</t>
+  </si>
+  <si>
+    <t>会員種別</t>
+  </si>
+  <si>
+    <t>book.Book</t>
+  </si>
+  <si>
+    <t>書籍</t>
+  </si>
+  <si>
+    <t>book.BookType</t>
+  </si>
+  <si>
+    <t>本種別</t>
+  </si>
+  <si>
+    <t>days.LendingCount</t>
+  </si>
+  <si>
+    <t>貸出可能数</t>
+  </si>
+  <si>
+    <t>days.ChildRule</t>
+  </si>
+  <si>
+    <t>子供貸し出し制限</t>
+  </si>
+  <si>
+    <t>days.DelayDays</t>
+  </si>
+  <si>
+    <t>遅延日数</t>
+  </si>
+  <si>
+    <t>days.AdultRule</t>
+  </si>
+  <si>
+    <t>大人貸し出し制限</t>
+  </si>
+  <si>
+    <t>days.ILendingRule</t>
+  </si>
+  <si>
+    <t>貸出制限インターフェース</t>
+  </si>
+  <si>
+    <t>使用箇所数</t>
+  </si>
+  <si>
+    <t>使用箇所</t>
+  </si>
+  <si>
+    <t>定数宣言</t>
+  </si>
+  <si>
+    <t>フィールド</t>
+  </si>
+  <si>
+    <t>パラメーター有り</t>
+  </si>
+  <si>
+    <t>振る舞い有り</t>
+  </si>
+  <si>
+    <t>多態</t>
+  </si>
+  <si>
+    <t>[ADULT, CHILD]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>jig.tutorial.domain.model.product</t>
+    <t>[Member]</t>
+  </si>
+  <si>
+    <t>[BOOK, LIMITED_BOOK, DVD, CD]</t>
+  </si>
+  <si>
+    <t>[Book]</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>jig.tutorial.domain.model.shipment</t>
-  </si>
-  <si>
-    <t>クラス名</t>
-  </si>
-  <si>
-    <t>クラス別名</t>
-  </si>
-  <si>
-    <t>order.Order</t>
-  </si>
-  <si>
-    <t>注文</t>
-  </si>
-  <si>
-    <t>product.Price</t>
-  </si>
-  <si>
-    <t>定価</t>
-  </si>
-  <si>
-    <t>product.Name</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>product.Product</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>shipment.Shipment</t>
-  </si>
-  <si>
-    <t>出荷</t>
-  </si>
-  <si>
-    <t>使用箇所数</t>
-  </si>
-  <si>
-    <t>使用箇所</t>
-  </si>
-  <si>
-    <t>定数宣言</t>
-  </si>
-  <si>
-    <t>フィールド</t>
-  </si>
-  <si>
-    <t>パラメーター有り</t>
-  </si>
-  <si>
-    <t>振る舞い有り</t>
-  </si>
-  <si>
-    <t>多態</t>
+    <t>[AdultRule, ChildRule, ILendingRule]</t>
   </si>
   <si>
     <t>フィールドの型</t>
@@ -162,6 +210,36 @@
   </si>
   <si>
     <t>voidを返している</t>
+  </si>
+  <si>
+    <t>lessSeven()</t>
+  </si>
+  <si>
+    <t>LendingCount</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>lessThree()</t>
+  </si>
+  <si>
+    <t>other()</t>
+  </si>
+  <si>
+    <t>calcDelayDays(LocalDate)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -212,7 +290,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.63671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -269,16 +347,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.5078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.04296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="21.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="24.87890625" customWidth="true" bestFit="true"/>
@@ -293,52 +371,332 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.04296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -389,8 +747,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B6"/>
+  <autoFilter ref="A1:B10"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -417,10 +807,10 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -431,18 +821,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.5234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.55859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.47265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="4.7109375" customWidth="true" bestFit="true"/>
@@ -456,45 +846,103 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I3"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,14 +953,28 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -542,19 +1004,19 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -585,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +1081,10 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -655,16 +1117,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
